--- a/NewAgainHousesIssues-Triforcia.xlsx
+++ b/NewAgainHousesIssues-Triforcia.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/Desktop/Work/Clarusway/Developer Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/Desktop/Work/Triforcia/PaidInternship/Open-House-App-Intern/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141E2E97-6B6A-E243-B109-39EFDCC7346C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E52407E-FB36-7947-9C50-9965C102431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="15980" xr2:uid="{8F3BC929-60F0-BC46-B467-CE847A963EE5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8F3BC929-60F0-BC46-B467-CE847A963EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Issue</t>
   </si>
@@ -258,13 +255,16 @@
   </si>
   <si>
     <t>Duplication rule for Visitors, Agents and Franchise Owners</t>
+  </si>
+  <si>
+    <t>Triforcia June Internship Open House App Tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -272,19 +272,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -293,10 +346,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -313,6 +406,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1932215</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>326572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5246915</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1088572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31852DCE-446C-7284-B106-A8C0683A29F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2757715" y="326572"/>
+          <a:ext cx="3314700" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,647 +763,675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFDF625-2CB1-5D4F-934D-A87F7034497E}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="95.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="95.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="97" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="E3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
         <v>0.5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
+      <c r="C20" s="8">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D20" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="8">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D21" s="8">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
+      <c r="C24" s="8">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8">
         <v>0.5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8">
         <v>0.5</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="8">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="8">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>7</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="B36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E43" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>4</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:E44">
-    <sortCondition ref="A17:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:E46">
+    <sortCondition ref="A19:A46"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C947C09A-FFFE-CA41-8E46-9885B0666E58}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4DCE84-30B2-B54E-8FF9-E95E8885BD40}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868CA5E3-18C7-E945-AFD8-0546F74629B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>